--- a/sampleFile/product.xlsx
+++ b/sampleFile/product.xlsx
@@ -16,13 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>SQL Template</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>insert into Product(ProductName,Price) values(?,?)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -48,6 +44,32 @@
     <rPh sb="0" eb="2">
       <t>ショウヒン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明１</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品4</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ああああ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>insert into Product(ProductName,Price,description,bools) values(?,?,?,?)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -72,12 +94,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -109,11 +143,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -417,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -429,41 +469,70 @@
     <col min="2" max="2" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>3</v>
       </c>
       <c r="B4">
         <v>1980</v>
       </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>2980</v>
       </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>100</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>19555555</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
